--- a/REPORTE SEMANAL 2 ANGEL OMAR.xlsx
+++ b/REPORTE SEMANAL 2 ANGEL OMAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\becario2_TI\Documents\Reporte semanal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\becario1_ti\Downloads\REPORTES ESCUELA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB104135-6899-4C2C-AC07-9890252FCEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FD88D0-591F-4864-B19D-FEC7D4974010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORTE SEMANAL" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>TECNOLOGICO DE ESTUDIOS SUPERIORES DE VILLLA GUERRERO</t>
   </si>
@@ -71,9 +93,6 @@
   </si>
   <si>
     <t>EVIDENCIAS</t>
-  </si>
-  <si>
-    <t>LOGO CARRERA</t>
   </si>
   <si>
     <t>NOMBRE DE LA CARRERA</t>
@@ -615,6 +634,36 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -636,9 +685,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -648,30 +694,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -713,9 +735,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -889,7 +908,171 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>184149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1847849</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>768348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B86232-5FB1-5079-3ED4-2D52F145041D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="1860549"/>
+          <a:ext cx="3124199" cy="4165599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>561976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1536698</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50DE082A-8DD4-1969-EBD0-E69A1F12475E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5162550" y="2238376"/>
+          <a:ext cx="4127498" cy="3095624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1158,7 +1341,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D13"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,56 +1356,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="10"/>
-      <c r="F1" s="20" t="s">
-        <v>15</v>
+      <c r="F1" s="30" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="33">
         <v>2</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="34">
         <v>45924</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -1241,14 +1424,14 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="A7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -1257,10 +1440,10 @@
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1269,74 +1452,74 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>17</v>
+      <c r="A9" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="14">
         <v>45918</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="32"/>
+      <c r="C9" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="23"/>
       <c r="E9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="15">
         <v>45919</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="34"/>
+      <c r="C10" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="25"/>
       <c r="E10" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="15">
         <v>45922</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="49"/>
+      <c r="C11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="18"/>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="15">
         <v>45923</v>
       </c>
-      <c r="C12" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="49"/>
+      <c r="C12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="18"/>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="15">
         <v>45924</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="49"/>
+      <c r="C13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="18"/>
       <c r="E13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="7"/>
     </row>
@@ -1365,19 +1548,26 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C4:E4"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="C12:D12"/>
@@ -1388,13 +1578,6 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" r:id="rId1"/>
@@ -1406,7 +1589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:F13"/>
     </sheetView>
   </sheetViews>
@@ -1422,56 +1605,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="26"/>
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="10"/>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="30" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="8" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="33">
         <v>1</v>
       </c>
-      <c r="F2" s="21"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="31"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -1490,66 +1673,66 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
     </row>
     <row r="10" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
     </row>
     <row r="11" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
     </row>
     <row r="12" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="1:6" ht="70.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="44"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -1584,16 +1767,16 @@
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="35"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="35"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
@@ -1613,6 +1796,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A9:F13"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A7:F7"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F1:F4"/>
@@ -1620,11 +1808,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A9:F13"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/REPORTE SEMANAL 2 ANGEL OMAR.xlsx
+++ b/REPORTE SEMANAL 2 ANGEL OMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\becario1_ti\Downloads\REPORTES ESCUELA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FD88D0-591F-4864-B19D-FEC7D4974010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC18BF3-2386-4A9E-8F77-009D10E10AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,9 +119,6 @@
     <t>ANGEL OMAR FLORES PEREZ</t>
   </si>
   <si>
-    <t>Se volvió analizar la fase  y 2 de la metodología para así hacer las correcciones correspondientes d ela primera fase del analisis.</t>
-  </si>
-  <si>
     <t>Corrección de la fase 2 que corresponde al diseño así como hacer modificaciones a los diseños del sistemas, integración de más ventanas, y agregar más tablas al diagrama modelo relacional de la Base de datos.</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   <si>
     <t xml:space="preserve"> Investigación de la metodología de investigación a utilizar para el sistema.
 </t>
+  </si>
+  <si>
+    <t>Se volvió analizar la fase 2 de la metodología para así hacer las correcciones correspondientes de la primera fase del analisis.</t>
   </si>
 </sst>
 </file>
@@ -634,7 +634,37 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,36 +692,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1340,8 +1340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,56 +1356,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26"/>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="10"/>
-      <c r="F1" s="30" t="e" vm="1">
+      <c r="F1" s="20" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="24">
         <v>2</v>
       </c>
-      <c r="F2" s="31"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="31"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="25">
         <v>45924</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="32"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -1424,14 +1424,14 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -1440,10 +1440,10 @@
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1452,72 +1452,72 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="14">
         <v>45918</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="23"/>
+      <c r="C9" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="33"/>
       <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="15">
         <v>45919</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="25"/>
+      <c r="C10" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="35"/>
       <c r="E10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="15">
         <v>45922</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="18"/>
+      <c r="C11" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="28"/>
       <c r="E11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="15">
         <v>45923</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="18"/>
+      <c r="C12" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="28"/>
       <c r="E12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="70.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="15">
         <v>45924</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="18"/>
+      <c r="C13" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="28"/>
       <c r="E13" s="7" t="s">
         <v>21</v>
       </c>
@@ -1548,26 +1548,19 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C4:E4"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="C12:D12"/>
@@ -1578,6 +1571,13 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="95" orientation="landscape" r:id="rId1"/>
@@ -1605,56 +1605,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="26"/>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="10"/>
-      <c r="F1" s="30" t="e" vm="1">
+      <c r="F1" s="20" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="24">
         <v>1</v>
       </c>
-      <c r="F2" s="31"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="31"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="32"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -1796,11 +1796,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A9:F13"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A7:F7"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F1:F4"/>
@@ -1808,6 +1803,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A9:F13"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
